--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/DELAWARE_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/DELAWARE_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D493"/>
+  <dimension ref="A1:D487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C3">
@@ -413,12 +413,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C4">
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C5">
@@ -444,12 +444,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LOS CABOS</t>
+          <t>Los Cabos</t>
         </is>
       </c>
       <c r="C6">
@@ -462,7 +462,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C7">
@@ -475,12 +475,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C8">
@@ -493,7 +493,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>ANGEL ALBINO CORZO</t>
+          <t>Angel Albino Corzo</t>
         </is>
       </c>
       <c r="C9">
@@ -506,7 +506,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>BELLA VISTA</t>
+          <t>Bella Vista</t>
         </is>
       </c>
       <c r="C10">
@@ -519,7 +519,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>Cacahoatán</t>
         </is>
       </c>
       <c r="C11">
@@ -532,7 +532,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>CATAZAJÁ</t>
+          <t>Catazajá</t>
         </is>
       </c>
       <c r="C12">
@@ -545,7 +545,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHAMULA</t>
+          <t>Chamula</t>
         </is>
       </c>
       <c r="C13">
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHENALHÓ</t>
+          <t>Chenalhó</t>
         </is>
       </c>
       <c r="C14">
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C15">
@@ -584,7 +584,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C16">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>COPAINALÁ</t>
+          <t>Copainalá</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>El Porvenir</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C19">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C20">
@@ -649,7 +649,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>Huehuetán</t>
         </is>
       </c>
       <c r="C21">
@@ -662,7 +662,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>HUIXTLA</t>
+          <t>Huixtla</t>
         </is>
       </c>
       <c r="C22">
@@ -675,7 +675,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>LA CONCORDIA</t>
+          <t>La Concordia</t>
         </is>
       </c>
       <c r="C23">
@@ -688,7 +688,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>LA GRANDEZA</t>
+          <t>La Grandeza</t>
         </is>
       </c>
       <c r="C24">
@@ -701,7 +701,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C25">
@@ -714,7 +714,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C26">
@@ -727,7 +727,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>METAPA</t>
+          <t>Metapa</t>
         </is>
       </c>
       <c r="C27">
@@ -740,7 +740,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C28">
@@ -753,7 +753,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C29">
@@ -766,7 +766,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C30">
@@ -779,7 +779,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C31">
@@ -792,7 +792,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>REFORMA</t>
+          <t>Reforma</t>
         </is>
       </c>
       <c r="C32">
@@ -805,7 +805,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C33">
@@ -818,7 +818,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>SUCHIAPA</t>
+          <t>Suchiapa</t>
         </is>
       </c>
       <c r="C34">
@@ -831,7 +831,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>Suchiate</t>
         </is>
       </c>
       <c r="C35">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C36">
@@ -857,7 +857,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>TEOPISCA</t>
+          <t>Teopisca</t>
         </is>
       </c>
       <c r="C37">
@@ -870,7 +870,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C38">
@@ -883,7 +883,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>TZIMOL</t>
+          <t>Tzimol</t>
         </is>
       </c>
       <c r="C39">
@@ -896,7 +896,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>UNIÓN JUÁREZ</t>
+          <t>Unión Juárez</t>
         </is>
       </c>
       <c r="C40">
@@ -909,7 +909,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C41">
@@ -922,7 +922,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>VILLAFLORES</t>
+          <t>Villaflores</t>
         </is>
       </c>
       <c r="C42">
@@ -935,7 +935,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>YAJALÓN</t>
+          <t>Yajalón</t>
         </is>
       </c>
       <c r="C43">
@@ -948,7 +948,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C44">
@@ -961,12 +961,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C46">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C47">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>MADERA</t>
+          <t>Madera</t>
         </is>
       </c>
       <c r="C48">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>SAUCILLO</t>
+          <t>Saucillo</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C50">
@@ -1044,12 +1044,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C51">
@@ -1062,7 +1062,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C52">
@@ -1075,7 +1075,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C53">
@@ -1088,7 +1088,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C54">
@@ -1101,7 +1101,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C55">
@@ -1114,7 +1114,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C56">
@@ -1127,7 +1127,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C57">
@@ -1140,7 +1140,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C58">
@@ -1153,7 +1153,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>MILPA ALTA</t>
+          <t>Milpa Alta</t>
         </is>
       </c>
       <c r="C59">
@@ -1166,7 +1166,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C60">
@@ -1179,7 +1179,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C61">
@@ -1192,7 +1192,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C62">
@@ -1205,7 +1205,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>XOCHIMILCO</t>
+          <t>Xochimilco</t>
         </is>
       </c>
       <c r="C63">
@@ -1218,7 +1218,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C64">
@@ -1231,7 +1231,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C65">
@@ -1244,12 +1244,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SALTILLO</t>
+          <t>Saltillo</t>
         </is>
       </c>
       <c r="C66">
@@ -1262,7 +1262,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>San Pedro</t>
         </is>
       </c>
       <c r="C67">
@@ -1275,7 +1275,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C68">
@@ -1288,12 +1288,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C69">
@@ -1306,7 +1306,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>MEZQUITAL</t>
+          <t>Mezquital</t>
         </is>
       </c>
       <c r="C70">
@@ -1319,7 +1319,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>PEÑÓN BLANCO</t>
+          <t>Peñón Blanco</t>
         </is>
       </c>
       <c r="C71">
@@ -1332,7 +1332,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>Pueblo Nuevo</t>
         </is>
       </c>
       <c r="C72">
@@ -1345,7 +1345,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>PÁNUCO DE CORONADO</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C73">
@@ -1358,7 +1358,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>SANTIAGO PAPASQUIARO</t>
+          <t>Santiago Papasquiaro</t>
         </is>
       </c>
       <c r="C74">
@@ -1371,7 +1371,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C75">
@@ -1384,7 +1384,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C76">
@@ -1397,12 +1397,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ACAMBAY DE RUÍZ CASTAÑEDA</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C77">
@@ -1415,7 +1415,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE ALQUISIRAS</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C78">
@@ -1428,7 +1428,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE JUÁREZ</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C79">
@@ -1441,7 +1441,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>AMANALCO</t>
+          <t>Amanalco</t>
         </is>
       </c>
       <c r="C80">
@@ -1454,7 +1454,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>AMATEPEC</t>
+          <t>Amatepec</t>
         </is>
       </c>
       <c r="C81">
@@ -1467,7 +1467,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>AMECAMECA</t>
+          <t>Amecameca</t>
         </is>
       </c>
       <c r="C82">
@@ -1480,7 +1480,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>ATIZAPÁN DE ZARAGOZA</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C83">
@@ -1493,7 +1493,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>ATLACOMULCO</t>
+          <t>Atlacomulco</t>
         </is>
       </c>
       <c r="C84">
@@ -1506,7 +1506,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>ATLAUTLA</t>
+          <t>Atlautla</t>
         </is>
       </c>
       <c r="C85">
@@ -1519,7 +1519,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>CALIMAYA</t>
+          <t>Calimaya</t>
         </is>
       </c>
       <c r="C86">
@@ -1532,7 +1532,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C87">
@@ -1545,7 +1545,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>COATEPEC HARINAS</t>
+          <t>Coatepec Harinas</t>
         </is>
       </c>
       <c r="C88">
@@ -1558,7 +1558,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C89">
@@ -1571,7 +1571,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>IXTAPALUCA</t>
+          <t>Ixtapaluca</t>
         </is>
       </c>
       <c r="C90">
@@ -1584,7 +1584,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>IXTAPAN DE LA SAL</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C91">
@@ -1597,7 +1597,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>IXTLAHUACA</t>
+          <t>Ixtlahuaca</t>
         </is>
       </c>
       <c r="C92">
@@ -1610,7 +1610,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>JALTENCO</t>
+          <t>Jaltenco</t>
         </is>
       </c>
       <c r="C93">
@@ -1623,7 +1623,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>JOCOTITLÁN</t>
+          <t>Jocotitlán</t>
         </is>
       </c>
       <c r="C94">
@@ -1636,7 +1636,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>JOQUICINGO</t>
+          <t>Joquicingo</t>
         </is>
       </c>
       <c r="C95">
@@ -1649,7 +1649,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C96">
@@ -1662,7 +1662,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C97">
@@ -1675,7 +1675,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C98">
@@ -1688,7 +1688,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C99">
@@ -1701,7 +1701,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C100">
@@ -1714,7 +1714,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>OZUMBA</t>
+          <t>Ozumba</t>
         </is>
       </c>
       <c r="C101">
@@ -1727,7 +1727,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C102">
@@ -1740,7 +1740,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>SAN JOSÉ DEL RINCÓN</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C103">
@@ -1753,7 +1753,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>SAN SIMÓN DE GUERRERO</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C104">
@@ -1766,7 +1766,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>SULTEPEC</t>
+          <t>Sultepec</t>
         </is>
       </c>
       <c r="C105">
@@ -1779,7 +1779,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>TECÁMAC</t>
+          <t>Tecámac</t>
         </is>
       </c>
       <c r="C106">
@@ -1792,7 +1792,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C107">
@@ -1805,7 +1805,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>TEMASCALCINGO</t>
+          <t>Temascalcingo</t>
         </is>
       </c>
       <c r="C108">
@@ -1818,7 +1818,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>TEMASCALTEPEC</t>
+          <t>Temascaltepec</t>
         </is>
       </c>
       <c r="C109">
@@ -1831,7 +1831,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C110">
@@ -1844,7 +1844,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>TENANGO DEL VALLE</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C111">
@@ -1857,7 +1857,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>TEXCALTITLÁN</t>
+          <t>Texcaltitlán</t>
         </is>
       </c>
       <c r="C112">
@@ -1870,7 +1870,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>TIANGUISTENCO</t>
+          <t>Tianguistenco</t>
         </is>
       </c>
       <c r="C113">
@@ -1883,7 +1883,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>TIMILPAN</t>
+          <t>Timilpan</t>
         </is>
       </c>
       <c r="C114">
@@ -1896,7 +1896,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C115">
@@ -1909,7 +1909,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C116">
@@ -1922,7 +1922,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>TONATICO</t>
+          <t>Tonatico</t>
         </is>
       </c>
       <c r="C117">
@@ -1935,7 +1935,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>VALLE DE BRAVO</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C118">
@@ -1948,7 +1948,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>VALLE DE CHALCO SOLIDARIDAD</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C119">
@@ -1961,7 +1961,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>VILLA DE ALLENDE</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C120">
@@ -1974,7 +1974,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>VILLA DEL CARBÓN</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C121">
@@ -1987,7 +1987,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
+          <t>Villa Guerrero</t>
         </is>
       </c>
       <c r="C122">
@@ -2000,7 +2000,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>VILLA VICTORIA</t>
+          <t>Villa Victoria</t>
         </is>
       </c>
       <c r="C123">
@@ -2013,7 +2013,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C124">
@@ -2026,7 +2026,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>ZINACANTEPEC</t>
+          <t>Zinacantepec</t>
         </is>
       </c>
       <c r="C125">
@@ -2039,7 +2039,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>ZUMPAHUACÁN</t>
+          <t>Zumpahuacán</t>
         </is>
       </c>
       <c r="C126">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C127">
@@ -2065,12 +2065,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ACÁMBARO</t>
+          <t>Acámbaro</t>
         </is>
       </c>
       <c r="C128">
@@ -2083,7 +2083,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C129">
@@ -2096,7 +2096,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>APASEO EL GRANDE</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C130">
@@ -2109,7 +2109,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C131">
@@ -2122,7 +2122,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
+          <t>Cortazar</t>
         </is>
       </c>
       <c r="C132">
@@ -2135,7 +2135,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C133">
@@ -2148,7 +2148,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C134">
@@ -2161,7 +2161,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C135">
@@ -2174,7 +2174,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C136">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>MOROLEÓN</t>
+          <t>Moroleón</t>
         </is>
       </c>
       <c r="C137">
@@ -2200,7 +2200,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C138">
@@ -2213,7 +2213,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C139">
@@ -2226,7 +2226,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
+          <t>Salvatierra</t>
         </is>
       </c>
       <c r="C140">
@@ -2239,7 +2239,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C141">
@@ -2252,7 +2252,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ITURBIDE</t>
+          <t>San José Iturbide</t>
         </is>
       </c>
       <c r="C142">
@@ -2265,7 +2265,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C143">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>URIANGATO</t>
+          <t>Uriangato</t>
         </is>
       </c>
       <c r="C144">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C145">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>YURIRIA</t>
+          <t>Yuriria</t>
         </is>
       </c>
       <c r="C146">
@@ -2317,7 +2317,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C147">
@@ -2330,12 +2330,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C148">
@@ -2348,7 +2348,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C149">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>AJUCHITLÁN DEL PROGRESO</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C150">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>ALPOYECA</t>
+          <t>Alpoyeca</t>
         </is>
       </c>
       <c r="C151">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
+          <t>Atlixtac</t>
         </is>
       </c>
       <c r="C152">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C153">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C154">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C155">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>COPANATOYAC</t>
+          <t>Copanatoyac</t>
         </is>
       </c>
       <c r="C156">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C157">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>FLORENCIO VILLARREAL</t>
+          <t>Florencio Villarreal</t>
         </is>
       </c>
       <c r="C158">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>GENERAL HELIODORO CASTILLO</t>
+          <t>General Heliodoro Castillo</t>
         </is>
       </c>
       <c r="C159">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>HUITZUCO DE LOS FIGUEROA</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>IGUALA DE LA INDEPENDENCIA</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C161">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>JUAN R. ESCUDERO</t>
+          <t>Juan R. Escudero</t>
         </is>
       </c>
       <c r="C162">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>LA UNIÓN DE ISIDORO MONTES DE OCA</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C163">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>OLINALÁ</t>
+          <t>Olinalá</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C165">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>PILCAYA</t>
+          <t>Pilcaya</t>
         </is>
       </c>
       <c r="C166">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>Teloloapan</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>TEPECOACUILCO DE TRUJANO</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C169">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>TETIPAC</t>
+          <t>Tetipac</t>
         </is>
       </c>
       <c r="C170">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>TLACOACHISTLAHUACA</t>
+          <t>Tlacoachistlahuaca</t>
         </is>
       </c>
       <c r="C171">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C172">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C173">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>XOCHIHUEHUETLÁN</t>
+          <t>Xochihuehuetlán</t>
         </is>
       </c>
       <c r="C174">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>XOCHISTLAHUACA</t>
+          <t>Xochistlahuaca</t>
         </is>
       </c>
       <c r="C175">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C176">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C177">
@@ -2725,12 +2725,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C178">
@@ -2743,7 +2743,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>APAN</t>
+          <t>Apan</t>
         </is>
       </c>
       <c r="C179">
@@ -2756,7 +2756,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>CHAPULHUACÁN</t>
+          <t>Chapulhuacán</t>
         </is>
       </c>
       <c r="C180">
@@ -2769,7 +2769,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C181">
@@ -2782,7 +2782,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C182">
@@ -2795,7 +2795,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C183">
@@ -2808,7 +2808,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>MINERAL DEL CHICO</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C184">
@@ -2821,7 +2821,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C185">
@@ -2834,7 +2834,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>PISAFLORES</t>
+          <t>Pisaflores</t>
         </is>
       </c>
       <c r="C186">
@@ -2847,7 +2847,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>SAN FELIPE ORIZATLÁN</t>
+          <t>San Felipe Orizatlán</t>
         </is>
       </c>
       <c r="C187">
@@ -2860,7 +2860,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>SAN SALVADOR</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="C188">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>TEPEHUACÁN DE GUERRERO</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C189">
@@ -2886,7 +2886,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>TULA DE ALLENDE</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C190">
@@ -2899,7 +2899,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C191">
@@ -2912,7 +2912,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C192">
@@ -2925,12 +2925,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AYUTLA</t>
+          <t>Ayutla</t>
         </is>
       </c>
       <c r="C193">
@@ -2943,7 +2943,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>BOLAÑOS</t>
+          <t>Bolaños</t>
         </is>
       </c>
       <c r="C194">
@@ -2956,7 +2956,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>EL SALTO</t>
+          <t>El Salto</t>
         </is>
       </c>
       <c r="C195">
@@ -2969,7 +2969,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C196">
@@ -2982,7 +2982,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C197">
@@ -2995,7 +2995,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>LA HUERTA</t>
+          <t>La Huerta</t>
         </is>
       </c>
       <c r="C198">
@@ -3008,7 +3008,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C199">
@@ -3021,7 +3021,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>SAN PEDRO TLAQUEPAQUE</t>
+          <t>San Pedro Tlaquepaque</t>
         </is>
       </c>
       <c r="C200">
@@ -3034,7 +3034,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>TALA</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="C201">
@@ -3047,7 +3047,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>TEOCALTICHE</t>
+          <t>Teocaltiche</t>
         </is>
       </c>
       <c r="C202">
@@ -3060,7 +3060,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C203">
@@ -3073,7 +3073,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>TIZAPÁN EL ALTO</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C204">
@@ -3086,7 +3086,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>VILLA PURIFICACIÓN</t>
+          <t>Villa Purificación</t>
         </is>
       </c>
       <c r="C205">
@@ -3099,7 +3099,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C206">
@@ -3112,7 +3112,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>ZAPOTLANEJO</t>
+          <t>Zapotlanejo</t>
         </is>
       </c>
       <c r="C207">
@@ -3125,7 +3125,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C208">
@@ -3138,12 +3138,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ARIO</t>
+          <t>Ario</t>
         </is>
       </c>
       <c r="C209">
@@ -3156,7 +3156,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>ARTEAGA</t>
+          <t>Arteaga</t>
         </is>
       </c>
       <c r="C210">
@@ -3169,7 +3169,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>CARÁCUARO</t>
+          <t>Carácuaro</t>
         </is>
       </c>
       <c r="C211">
@@ -3182,7 +3182,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>COALCOMÁN DE VÁZQUEZ PALLARES</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C212">
@@ -3195,7 +3195,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>COENEO</t>
+          <t>Coeneo</t>
         </is>
       </c>
       <c r="C213">
@@ -3208,7 +3208,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>CONTEPEC</t>
+          <t>Contepec</t>
         </is>
       </c>
       <c r="C214">
@@ -3221,7 +3221,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>ECUANDUREO</t>
+          <t>Ecuandureo</t>
         </is>
       </c>
       <c r="C215">
@@ -3234,7 +3234,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>ERONGARÍCUARO</t>
+          <t>Erongarícuaro</t>
         </is>
       </c>
       <c r="C216">
@@ -3247,7 +3247,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>GABRIEL ZAMORA</t>
+          <t>Gabriel Zamora</t>
         </is>
       </c>
       <c r="C217">
@@ -3260,7 +3260,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>HUETAMO</t>
+          <t>Huetamo</t>
         </is>
       </c>
       <c r="C218">
@@ -3273,7 +3273,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C219">
@@ -3286,7 +3286,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>LA HUACANA</t>
+          <t>La Huacana</t>
         </is>
       </c>
       <c r="C220">
@@ -3299,7 +3299,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C221">
@@ -3312,7 +3312,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C222">
@@ -3325,7 +3325,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C223">
@@ -3338,7 +3338,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>MÚGICA</t>
+          <t>Múgica</t>
         </is>
       </c>
       <c r="C224">
@@ -3351,7 +3351,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>NOCUPÉTARO</t>
+          <t>Nocupétaro</t>
         </is>
       </c>
       <c r="C225">
@@ -3364,7 +3364,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>NUEVO URECHO</t>
+          <t>Nuevo Urecho</t>
         </is>
       </c>
       <c r="C226">
@@ -3377,7 +3377,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C227">
@@ -3390,7 +3390,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C228">
@@ -3403,7 +3403,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C229">
@@ -3416,7 +3416,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>QUIROGA</t>
+          <t>Quiroga</t>
         </is>
       </c>
       <c r="C230">
@@ -3429,7 +3429,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>SAN LUCAS</t>
+          <t>San Lucas</t>
         </is>
       </c>
       <c r="C231">
@@ -3442,7 +3442,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>TACÁMBARO</t>
+          <t>Tacámbaro</t>
         </is>
       </c>
       <c r="C232">
@@ -3455,7 +3455,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>TANGAMANDAPIO</t>
+          <t>Tangamandapio</t>
         </is>
       </c>
       <c r="C233">
@@ -3468,7 +3468,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>TARÍMBARO</t>
+          <t>Tarímbaro</t>
         </is>
       </c>
       <c r="C234">
@@ -3481,7 +3481,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>TINGAMBATO</t>
+          <t>Tingambato</t>
         </is>
       </c>
       <c r="C235">
@@ -3494,7 +3494,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>TIQUICHEO DE NICOLÁS ROMERO</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C236">
@@ -3507,7 +3507,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>TURICATO</t>
+          <t>Turicato</t>
         </is>
       </c>
       <c r="C237">
@@ -3520,7 +3520,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C238">
@@ -3533,7 +3533,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>TUZANTLA</t>
+          <t>Tuzantla</t>
         </is>
       </c>
       <c r="C239">
@@ -3546,7 +3546,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C240">
@@ -3559,7 +3559,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C241">
@@ -3572,7 +3572,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C242">
@@ -3585,7 +3585,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C243">
@@ -3598,7 +3598,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C244">
@@ -3611,12 +3611,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>AYALA</t>
+          <t>Ayala</t>
         </is>
       </c>
       <c r="C245">
@@ -3629,7 +3629,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C246">
@@ -3642,7 +3642,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C247">
@@ -3655,7 +3655,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C248">
@@ -3668,7 +3668,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>HUITZILAC</t>
+          <t>Huitzilac</t>
         </is>
       </c>
       <c r="C249">
@@ -3681,7 +3681,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>JOJUTLA</t>
+          <t>Jojutla</t>
         </is>
       </c>
       <c r="C250">
@@ -3694,7 +3694,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>PUENTE DE IXTLA</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C251">
@@ -3707,7 +3707,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>TEMIXCO</t>
+          <t>Temixco</t>
         </is>
       </c>
       <c r="C252">
@@ -3720,7 +3720,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>TEPALCINGO</t>
+          <t>Tepalcingo</t>
         </is>
       </c>
       <c r="C253">
@@ -3733,7 +3733,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>TLALTIZAPÁN DE ZAPATA</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C254">
@@ -3746,7 +3746,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>YAUTEPEC</t>
+          <t>Yautepec</t>
         </is>
       </c>
       <c r="C255">
@@ -3759,7 +3759,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>ZACATEPEC</t>
+          <t>Zacatepec</t>
         </is>
       </c>
       <c r="C256">
@@ -3772,7 +3772,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C257">
@@ -3785,12 +3785,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
+          <t>Compostela</t>
         </is>
       </c>
       <c r="C258">
@@ -3803,7 +3803,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>LA YESCA</t>
+          <t>La Yesca</t>
         </is>
       </c>
       <c r="C259">
@@ -3816,7 +3816,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>SAN BLAS</t>
+          <t>San Blas</t>
         </is>
       </c>
       <c r="C260">
@@ -3829,7 +3829,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C261">
@@ -3842,7 +3842,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C262">
@@ -3855,7 +3855,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C263">
@@ -3868,12 +3868,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>CADEREYTA JIMÉNEZ</t>
+          <t>Cadereyta Jiménez</t>
         </is>
       </c>
       <c r="C264">
@@ -3886,7 +3886,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C265">
@@ -3899,7 +3899,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C266">
@@ -3912,12 +3912,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>CANDELARIA LOXICHA</t>
+          <t>Candelaria Loxicha</t>
         </is>
       </c>
       <c r="C267">
@@ -3930,7 +3930,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>COICOYÁN DE LAS FLORES</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C268">
@@ -3943,7 +3943,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>EL BARRIO DE LA SOLEDAD</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C269">
@@ -3956,7 +3956,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>FRESNILLO DE TRUJANO</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C270">
@@ -3969,7 +3969,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>MAGDALENA TEQUISISTLÁN</t>
+          <t>Magdalena Tequisistlán</t>
         </is>
       </c>
       <c r="C271">
@@ -3982,7 +3982,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>NUEVO ZOQUIÁPAM</t>
+          <t>Nuevo Zoquiápam</t>
         </is>
       </c>
       <c r="C272">
@@ -3995,7 +3995,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C273">
@@ -4008,7 +4008,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>PUTLA VILLA DE GUERRERO</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C274">
@@ -4021,7 +4021,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS DINICUITI</t>
+          <t>San Andrés Dinicuiti</t>
         </is>
       </c>
       <c r="C275">
@@ -4034,7 +4034,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TEOTILÁLPAM</t>
+          <t>San Andrés Teotilálpam</t>
         </is>
       </c>
       <c r="C276">
@@ -4047,7 +4047,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>SAN CARLOS YAUTEPEC</t>
+          <t>San Carlos Yautepec</t>
         </is>
       </c>
       <c r="C277">
@@ -4060,7 +4060,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL AMATLÁN</t>
+          <t>San Cristóbal Amatlán</t>
         </is>
       </c>
       <c r="C278">
@@ -4073,7 +4073,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>SAN GABRIEL MIXTEPEC</t>
+          <t>San Gabriel Mixtepec</t>
         </is>
       </c>
       <c r="C279">
@@ -4086,7 +4086,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA LO DE SOTO</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C280">
@@ -4099,7 +4099,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C281">
@@ -4112,7 +4112,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>SAN JUAN ÑUMÍ</t>
+          <t>San Juan Ñumí</t>
         </is>
       </c>
       <c r="C282">
@@ -4125,7 +4125,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>SAN PABLO TIJALTEPEC</t>
+          <t>San Pablo Tijaltepec</t>
         </is>
       </c>
       <c r="C283">
@@ -4138,7 +4138,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>SAN PEDRO ATOYAC</t>
+          <t>San Pedro Atoyac</t>
         </is>
       </c>
       <c r="C284">
@@ -4151,7 +4151,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 22 -</t>
+          <t>San Pedro Mixtepec -Dto. 22 -</t>
         </is>
       </c>
       <c r="C285">
@@ -4164,7 +4164,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN TECOMAXTLAHUACA</t>
+          <t>San Sebastián Tecomaxtlahuaca</t>
         </is>
       </c>
       <c r="C286">
@@ -4177,7 +4177,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>SANTA INÉS DEL MONTE</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C287">
@@ -4190,7 +4190,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>SANTA MARÍA JACATEPEC</t>
+          <t>Santa María Jacatepec</t>
         </is>
       </c>
       <c r="C288">
@@ -4203,7 +4203,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TEMAXCALTEPEC</t>
+          <t>Santa María Temaxcaltepec</t>
         </is>
       </c>
       <c r="C289">
@@ -4216,7 +4216,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>SANTIAGO HUAJOLOTITLÁN</t>
+          <t>Santiago Huajolotitlán</t>
         </is>
       </c>
       <c r="C290">
@@ -4229,7 +4229,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C291">
@@ -4242,7 +4242,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C292">
@@ -4255,7 +4255,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C293">
@@ -4268,7 +4268,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>SANTIAGO SUCHILQUITONGO</t>
+          <t>Santiago Suchilquitongo</t>
         </is>
       </c>
       <c r="C294">
@@ -4281,7 +4281,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEHUANTEPEC</t>
+          <t>Santo Domingo Tehuantepec</t>
         </is>
       </c>
       <c r="C295">
@@ -4294,7 +4294,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TONALÁ</t>
+          <t>Santo Domingo Tonalá</t>
         </is>
       </c>
       <c r="C296">
@@ -4307,7 +4307,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO ZANATEPEC</t>
+          <t>Santo Domingo Zanatepec</t>
         </is>
       </c>
       <c r="C297">
@@ -4320,7 +4320,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C298">
@@ -4333,7 +4333,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>TATALTEPEC DE VALDÉS</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C299">
@@ -4346,7 +4346,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>TEOTITLÁN DE FLORES MAGÓN</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C300">
@@ -4359,7 +4359,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>VALERIO TRUJANO</t>
+          <t>Valerio Trujano</t>
         </is>
       </c>
       <c r="C301">
@@ -4372,7 +4372,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>VILLA DE ETLA</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C302">
@@ -4385,7 +4385,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C303">
@@ -4398,7 +4398,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>ZIMATLÁN DE ÁLVAREZ</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C304">
@@ -4411,7 +4411,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C305">
@@ -4424,12 +4424,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ACATENO</t>
+          <t>Acateno</t>
         </is>
       </c>
       <c r="C306">
@@ -4442,7 +4442,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C307">
@@ -4455,7 +4455,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>ACATZINGO</t>
+          <t>Acatzingo</t>
         </is>
       </c>
       <c r="C308">
@@ -4468,7 +4468,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>AJALPAN</t>
+          <t>Ajalpan</t>
         </is>
       </c>
       <c r="C309">
@@ -4481,7 +4481,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>ATEMPAN</t>
+          <t>Atempan</t>
         </is>
       </c>
       <c r="C310">
@@ -4494,7 +4494,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C311">
@@ -4507,7 +4507,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>CALPAN</t>
+          <t>Calpan</t>
         </is>
       </c>
       <c r="C312">
@@ -4520,7 +4520,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>CHALCHICOMULA DE SESMA</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C313">
@@ -4533,7 +4533,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>CHAPULCO</t>
+          <t>Chapulco</t>
         </is>
       </c>
       <c r="C314">
@@ -4546,7 +4546,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C315">
@@ -4559,7 +4559,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>CHIAUTZINGO</t>
+          <t>Chiautzingo</t>
         </is>
       </c>
       <c r="C316">
@@ -4572,7 +4572,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>CHICHIQUILA</t>
+          <t>Chichiquila</t>
         </is>
       </c>
       <c r="C317">
@@ -4585,7 +4585,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>CHIETLA</t>
+          <t>Chietla</t>
         </is>
       </c>
       <c r="C318">
@@ -4598,7 +4598,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>CHILCHOTLA</t>
+          <t>Chilchotla</t>
         </is>
       </c>
       <c r="C319">
@@ -4611,7 +4611,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>COHETZALA</t>
+          <t>Cohetzala</t>
         </is>
       </c>
       <c r="C320">
@@ -4624,7 +4624,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>CORONANGO</t>
+          <t>Coronango</t>
         </is>
       </c>
       <c r="C321">
@@ -4637,7 +4637,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>CUAUTEMPAN</t>
+          <t>Cuautempan</t>
         </is>
       </c>
       <c r="C322">
@@ -4650,7 +4650,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>CUETZALAN DEL PROGRESO</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C323">
@@ -4663,7 +4663,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>DOMINGO ARENAS</t>
+          <t>Domingo Arenas</t>
         </is>
       </c>
       <c r="C324">
@@ -4676,7 +4676,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>ELOXOCHITLÁN</t>
+          <t>Eloxochitlán</t>
         </is>
       </c>
       <c r="C325">
@@ -4689,7 +4689,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C326">
@@ -4702,7 +4702,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>HERMENEGILDO GALEANA</t>
+          <t>Hermenegildo Galeana</t>
         </is>
       </c>
       <c r="C327">
@@ -4715,7 +4715,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C328">
@@ -4728,7 +4728,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN EL CHICO</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C329">
@@ -4741,7 +4741,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN EL GRANDE</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C330">
@@ -4754,7 +4754,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>HUEJOTZINGO</t>
+          <t>Huejotzingo</t>
         </is>
       </c>
       <c r="C331">
@@ -4767,7 +4767,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C332">
@@ -4780,7 +4780,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>JUAN C. BONILLA</t>
+          <t>Juan C. Bonilla</t>
         </is>
       </c>
       <c r="C333">
@@ -4793,7 +4793,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>LIBRES</t>
+          <t>Libres</t>
         </is>
       </c>
       <c r="C334">
@@ -4806,7 +4806,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>LOS REYES DE JUÁREZ</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C335">
@@ -4819,7 +4819,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>NEALTICAN</t>
+          <t>Nealtican</t>
         </is>
       </c>
       <c r="C336">
@@ -4832,7 +4832,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C337">
@@ -4845,7 +4845,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>OCOYUCAN</t>
+          <t>Ocoyucan</t>
         </is>
       </c>
       <c r="C338">
@@ -4858,7 +4858,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>PALMAR DE BRAVO</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C339">
@@ -4871,7 +4871,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C340">
@@ -4884,7 +4884,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>QUECHOLAC</t>
+          <t>Quecholac</t>
         </is>
       </c>
       <c r="C341">
@@ -4897,7 +4897,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>QUIMIXTLÁN</t>
+          <t>Quimixtlán</t>
         </is>
       </c>
       <c r="C342">
@@ -4910,7 +4910,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>SAN FELIPE TEOTLALCINGO</t>
+          <t>San Felipe Teotlalcingo</t>
         </is>
       </c>
       <c r="C343">
@@ -4923,7 +4923,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C344">
@@ -4936,7 +4936,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>SAN MIGUEL XOXTLA</t>
+          <t>San Miguel Xoxtla</t>
         </is>
       </c>
       <c r="C345">
@@ -4949,7 +4949,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS RANCHOS</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C346">
@@ -4962,7 +4962,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL VERDE</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C347">
@@ -4975,7 +4975,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>TECAMACHALCO</t>
+          <t>Tecamachalco</t>
         </is>
       </c>
       <c r="C348">
@@ -4988,7 +4988,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C349">
@@ -5001,7 +5001,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>TEPEACA</t>
+          <t>Tepeaca</t>
         </is>
       </c>
       <c r="C350">
@@ -5014,7 +5014,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>TEPEOJUMA</t>
+          <t>Tepeojuma</t>
         </is>
       </c>
       <c r="C351">
@@ -5027,7 +5027,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>TEPETZINTLA</t>
+          <t>Tepetzintla</t>
         </is>
       </c>
       <c r="C352">
@@ -5040,7 +5040,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>Teziutlán</t>
         </is>
       </c>
       <c r="C353">
@@ -5053,7 +5053,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C354">
@@ -5066,7 +5066,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>Tlahuapan</t>
         </is>
       </c>
       <c r="C355">
@@ -5079,7 +5079,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>TLALTENANGO</t>
+          <t>Tlaltenango</t>
         </is>
       </c>
       <c r="C356">
@@ -5092,7 +5092,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>TLATLAUQUITEPEC</t>
+          <t>Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C357">
@@ -5105,7 +5105,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>TLAXCO</t>
+          <t>Tlaxco</t>
         </is>
       </c>
       <c r="C358">
@@ -5118,7 +5118,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>TUZAMAPAN DE GALEANA</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C359">
@@ -5131,7 +5131,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C360">
@@ -5144,7 +5144,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C361">
@@ -5157,7 +5157,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C362">
@@ -5170,7 +5170,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C363">
@@ -5183,7 +5183,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>ZAUTLA</t>
+          <t>Zautla</t>
         </is>
       </c>
       <c r="C364">
@@ -5196,7 +5196,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>ZOQUITLÁN</t>
+          <t>Zoquitlán</t>
         </is>
       </c>
       <c r="C365">
@@ -5209,7 +5209,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C366">
@@ -5222,12 +5222,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C367">
@@ -5240,7 +5240,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>COLÓN</t>
+          <t>Colón</t>
         </is>
       </c>
       <c r="C368">
@@ -5253,7 +5253,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>JALPAN DE SERRA</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C369">
@@ -5266,7 +5266,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C370">
@@ -5279,7 +5279,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>TOLIMÁN</t>
+          <t>Tolimán</t>
         </is>
       </c>
       <c r="C371">
@@ -5292,7 +5292,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C372">
@@ -5305,12 +5305,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C373">
@@ -5323,7 +5323,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C374">
@@ -5336,12 +5336,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>CIUDAD DEL MAÍZ</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C375">
@@ -5354,7 +5354,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>CIUDAD FERNÁNDEZ</t>
+          <t>Ciudad Fernández</t>
         </is>
       </c>
       <c r="C376">
@@ -5367,7 +5367,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>EBANO</t>
+          <t>Ebano</t>
         </is>
       </c>
       <c r="C377">
@@ -5380,7 +5380,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>GUADALCÁZAR</t>
+          <t>Guadalcázar</t>
         </is>
       </c>
       <c r="C378">
@@ -5393,7 +5393,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>MOCTEZUMA</t>
+          <t>Moctezuma</t>
         </is>
       </c>
       <c r="C379">
@@ -5406,7 +5406,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
+          <t>Rioverde</t>
         </is>
       </c>
       <c r="C380">
@@ -5419,7 +5419,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>Salinas</t>
         </is>
       </c>
       <c r="C381">
@@ -5432,7 +5432,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>SAN CIRO DE ACOSTA</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C382">
@@ -5445,7 +5445,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C383">
@@ -5458,7 +5458,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS TOLENTINO</t>
+          <t>San Nicolás Tolentino</t>
         </is>
       </c>
       <c r="C384">
@@ -5471,7 +5471,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>TAMASOPO</t>
+          <t>Tamasopo</t>
         </is>
       </c>
       <c r="C385">
@@ -5484,7 +5484,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>TAMAZUNCHALE</t>
+          <t>Tamazunchale</t>
         </is>
       </c>
       <c r="C386">
@@ -5497,7 +5497,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C387">
@@ -5510,12 +5510,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C388">
@@ -5528,7 +5528,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C389">
@@ -5541,7 +5541,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="C390">
@@ -5554,7 +5554,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C391">
@@ -5567,12 +5567,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>AGUA PRIETA</t>
+          <t>Agua Prieta</t>
         </is>
       </c>
       <c r="C392">
@@ -5585,7 +5585,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C393">
@@ -5598,12 +5598,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C394">
@@ -5616,7 +5616,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>MACUSPANA</t>
+          <t>Macuspana</t>
         </is>
       </c>
       <c r="C395">
@@ -5629,7 +5629,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>PARAÍSO</t>
+          <t>Paraíso</t>
         </is>
       </c>
       <c r="C396">
@@ -5642,7 +5642,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>TACOTALPA</t>
+          <t>Tacotalpa</t>
         </is>
       </c>
       <c r="C397">
@@ -5655,7 +5655,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C398">
@@ -5668,12 +5668,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>ALTAMIRA</t>
+          <t>Altamira</t>
         </is>
       </c>
       <c r="C399">
@@ -5686,7 +5686,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>JAUMAVE</t>
+          <t>Jaumave</t>
         </is>
       </c>
       <c r="C400">
@@ -5699,7 +5699,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C401">
@@ -5712,7 +5712,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C402">
@@ -5725,7 +5725,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C403">
@@ -5738,7 +5738,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>RÍO BRAVO</t>
+          <t>Río Bravo</t>
         </is>
       </c>
       <c r="C404">
@@ -5751,7 +5751,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C405">
@@ -5764,12 +5764,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>CALPULALPAN</t>
+          <t>Calpulalpan</t>
         </is>
       </c>
       <c r="C406">
@@ -5782,7 +5782,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>CHIAUTEMPAN</t>
+          <t>Chiautempan</t>
         </is>
       </c>
       <c r="C407">
@@ -5795,7 +5795,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C408">
@@ -5808,7 +5808,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>HUEYOTLIPAN</t>
+          <t>Hueyotlipan</t>
         </is>
       </c>
       <c r="C409">
@@ -5821,7 +5821,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>NANACAMILPA DE MARIANO ARISTA</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C410">
@@ -5834,7 +5834,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>TETLA DE LA SOLIDARIDAD</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C411">
@@ -5847,7 +5847,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C412">
@@ -5860,7 +5860,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C413">
@@ -5873,12 +5873,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>ACAYUCAN</t>
+          <t>Acayucan</t>
         </is>
       </c>
       <c r="C414">
@@ -5891,7 +5891,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>ACULA</t>
+          <t>Acula</t>
         </is>
       </c>
       <c r="C415">
@@ -5904,7 +5904,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>ALTO LUCERO DE GUTIÉRREZ BARRIOS</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C416">
@@ -5917,7 +5917,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>ALVARADO</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="C417">
@@ -5930,7 +5930,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>ANGEL R. CABADA</t>
+          <t>Angel R. Cabada</t>
         </is>
       </c>
       <c r="C418">
@@ -5943,7 +5943,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C419">
@@ -5956,7 +5956,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>CATEMACO</t>
+          <t>Catemaco</t>
         </is>
       </c>
       <c r="C420">
@@ -5969,7 +5969,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>CAZONES DE HERRERA</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C421">
@@ -5982,7 +5982,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>CHACALTIANGUIS</t>
+          <t>Chacaltianguis</t>
         </is>
       </c>
       <c r="C422">
@@ -5995,7 +5995,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>COATEPEC</t>
+          <t>Coatepec</t>
         </is>
       </c>
       <c r="C423">
@@ -6008,7 +6008,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C424">
@@ -6021,7 +6021,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>COSAMALOAPAN DE CARPIO</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C425">
@@ -6034,7 +6034,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C426">
@@ -6047,7 +6047,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>COTAXTLA</t>
+          <t>Cotaxtla</t>
         </is>
       </c>
       <c r="C427">
@@ -6060,7 +6060,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>COYUTLA</t>
+          <t>Coyutla</t>
         </is>
       </c>
       <c r="C428">
@@ -6073,7 +6073,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>CUITLÁHUAC</t>
+          <t>Cuitláhuac</t>
         </is>
       </c>
       <c r="C429">
@@ -6086,7 +6086,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C430">
@@ -6099,7 +6099,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>ESPINAL</t>
+          <t>Espinal</t>
         </is>
       </c>
       <c r="C431">
@@ -6112,7 +6112,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>FORTÍN</t>
+          <t>Fortín</t>
         </is>
       </c>
       <c r="C432">
@@ -6125,7 +6125,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C433">
@@ -6138,7 +6138,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>HUEYAPAN DE OCAMPO</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C434">
@@ -6151,7 +6151,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C435">
@@ -6164,7 +6164,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>IXMATLAHUACAN</t>
+          <t>Ixmatlahuacan</t>
         </is>
       </c>
       <c r="C436">
@@ -6177,7 +6177,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>JALCOMULCO</t>
+          <t>Jalcomulco</t>
         </is>
       </c>
       <c r="C437">
@@ -6190,7 +6190,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>JESÚS CARRANZA</t>
+          <t>Jesús Carranza</t>
         </is>
       </c>
       <c r="C438">
@@ -6203,7 +6203,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>JOSÉ AZUETA</t>
+          <t>José Azueta</t>
         </is>
       </c>
       <c r="C439">
@@ -6216,7 +6216,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>JUAN RODRÍGUEZ CLARA</t>
+          <t>Juan Rodríguez Clara</t>
         </is>
       </c>
       <c r="C440">
@@ -6229,7 +6229,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>JUCHIQUE DE FERRER</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C441">
@@ -6242,7 +6242,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C442">
@@ -6255,7 +6255,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>LAS VIGAS DE RAMÍREZ</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C443">
@@ -6268,7 +6268,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>LERDO DE TEJADA</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C444">
@@ -6281,7 +6281,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>MANLIO FABIO ALTAMIRANO</t>
+          <t>Manlio Fabio Altamirano</t>
         </is>
       </c>
       <c r="C445">
@@ -6294,7 +6294,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C446">
@@ -6307,7 +6307,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>MECAYAPAN</t>
+          <t>Mecayapan</t>
         </is>
       </c>
       <c r="C447">
@@ -6320,7 +6320,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>NANCHITAL DE LÁZARO CÁRDENAS DEL RÍO</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C448">
@@ -6333,7 +6333,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C449">
@@ -6346,7 +6346,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C450">
@@ -6359,7 +6359,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>OTATITLÁN</t>
+          <t>Otatitlán</t>
         </is>
       </c>
       <c r="C451">
@@ -6372,7 +6372,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>PAPANTLA</t>
+          <t>Papantla</t>
         </is>
       </c>
       <c r="C452">
@@ -6385,7 +6385,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>PASO DE OVEJAS</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C453">
@@ -6398,7 +6398,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>PEROTE</t>
+          <t>Perote</t>
         </is>
       </c>
       <c r="C454">
@@ -6411,7 +6411,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C455">
@@ -6424,7 +6424,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C456">
@@ -6437,7 +6437,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>SANTIAGO TUXTLA</t>
+          <t>Santiago Tuxtla</t>
         </is>
       </c>
       <c r="C457">
@@ -6450,7 +6450,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>SOLEDAD DE DOBLADO</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C458">
@@ -6463,7 +6463,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>TEOCELO</t>
+          <t>Teocelo</t>
         </is>
       </c>
       <c r="C459">
@@ -6476,7 +6476,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>TEXCATEPEC</t>
+          <t>Texcatepec</t>
         </is>
       </c>
       <c r="C460">
@@ -6489,7 +6489,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>TEXHUACÁN</t>
+          <t>Texhuacán</t>
         </is>
       </c>
       <c r="C461">
@@ -6502,7 +6502,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C462">
@@ -6515,7 +6515,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C463">
@@ -6528,7 +6528,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>TLACHICHILCO</t>
+          <t>Tlachichilco</t>
         </is>
       </c>
       <c r="C464">
@@ -6541,7 +6541,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C465">
@@ -6554,7 +6554,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>TLAPACOYAN</t>
+          <t>Tlapacoyan</t>
         </is>
       </c>
       <c r="C466">
@@ -6567,7 +6567,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>TLILAPAN</t>
+          <t>Tlilapan</t>
         </is>
       </c>
       <c r="C467">
@@ -6580,7 +6580,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>TRES VALLES</t>
+          <t>Tres Valles</t>
         </is>
       </c>
       <c r="C468">
@@ -6593,7 +6593,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C469">
@@ -6606,7 +6606,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>URSULO GALVÁN</t>
+          <t>Ursulo Galván</t>
         </is>
       </c>
       <c r="C470">
@@ -6619,7 +6619,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C471">
@@ -6632,7 +6632,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C472">
@@ -6645,7 +6645,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C473">
@@ -6658,7 +6658,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C474">
@@ -6671,12 +6671,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="C475">
@@ -6689,7 +6689,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C476">
@@ -6702,12 +6702,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>ATOLINGA</t>
+          <t>Atolinga</t>
         </is>
       </c>
       <c r="C477">
@@ -6720,7 +6720,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>HUANUSCO</t>
+          <t>Huanusco</t>
         </is>
       </c>
       <c r="C478">
@@ -6733,7 +6733,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>OJOCALIENTE</t>
+          <t>Ojocaliente</t>
         </is>
       </c>
       <c r="C479">
@@ -6746,7 +6746,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C480">
@@ -6759,7 +6759,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C481">
@@ -6772,7 +6772,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>SAIN ALTO</t>
+          <t>Sain Alto</t>
         </is>
       </c>
       <c r="C482">
@@ -6785,7 +6785,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C483">
@@ -6798,7 +6798,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>TEPECHITLÁN</t>
+          <t>Tepechitlán</t>
         </is>
       </c>
       <c r="C484">
@@ -6811,7 +6811,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>VALPARAÍSO</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="C485">
@@ -6824,7 +6824,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C486">
@@ -6837,7 +6837,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C487">
@@ -6845,41 +6845,6 @@
       </c>
       <c r="D487">
         <v>1</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/DELAWARE_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/DELAWARE_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -491,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Catazajá</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Copainalá</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Metapa</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Suchiapa</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -868,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -881,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tzimol</t>
@@ -894,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -907,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -920,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -933,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Yajalón</t>
@@ -946,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1060,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1073,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1086,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1099,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1112,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1125,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1138,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1151,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1164,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1177,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1190,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1203,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1216,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -1229,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1260,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1273,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1304,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -1317,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Peñón Blanco</t>
@@ -1330,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -1343,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Pánuco De Coronado</t>
@@ -1356,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -1369,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1382,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1413,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Almoloya De Alquisiras</t>
@@ -1426,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -1439,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Amanalco</t>
@@ -1452,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -1465,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Amecameca</t>
@@ -1478,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -1491,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -1504,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -1517,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Calimaya</t>
@@ -1530,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1543,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1556,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1569,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -1582,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1595,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1608,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Jaltenco</t>
@@ -1621,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -1634,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Joquicingo</t>
@@ -1647,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1660,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -1673,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1686,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1699,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -1712,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -1725,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1738,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>San José Del Rincón</t>
@@ -1751,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>San Simón De Guerrero</t>
@@ -1764,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -1777,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Tecámac</t>
@@ -1790,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1803,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -1816,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1829,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1842,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -1855,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Texcaltitlán</t>
@@ -1868,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tianguistenco</t>
@@ -1881,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Timilpan</t>
@@ -1894,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1907,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1920,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Tonatico</t>
@@ -1933,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Valle De Bravo</t>
@@ -1946,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -1959,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Villa De Allende</t>
@@ -1972,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Villa Del Carbón</t>
@@ -1985,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1998,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -2011,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -2024,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -2037,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Zumpahuacán</t>
@@ -2050,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2081,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -2094,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -2107,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2120,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -2133,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -2146,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2159,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2172,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>León</t>
@@ -2185,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -2198,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -2211,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2224,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -2237,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2250,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -2263,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -2276,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -2289,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2302,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2315,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -2372,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -2385,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -2398,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -2411,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -2424,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -2437,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -2450,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -2463,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -2476,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -2489,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -2502,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -2515,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2528,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>La Unión De Isidoro Montes De Oca</t>
@@ -2541,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -2554,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -2567,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -2580,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2593,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -2606,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -2619,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -2632,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -2645,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -2658,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -2671,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Xochihuehuetlán</t>
@@ -2684,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Xochistlahuaca</t>
@@ -2697,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -2710,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2741,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -2754,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -2767,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -2780,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -2793,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -2806,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Mineral Del Chico</t>
@@ -2819,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -2832,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -2845,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>San Felipe Orizatlán</t>
@@ -2858,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -2871,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -2884,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -2897,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -2910,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2941,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Bolaños</t>
@@ -2954,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -2967,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -2980,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2993,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -3006,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -3019,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -3032,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -3045,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -3058,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -3071,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -3084,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -3097,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -3110,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -3123,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3154,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Arteaga</t>
@@ -3167,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -3180,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -3193,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -3206,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -3219,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Ecuandureo</t>
@@ -3232,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Erongarícuaro</t>
@@ -3245,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Gabriel Zamora</t>
@@ -3258,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -3271,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -3284,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -3297,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -3310,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -3323,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -3336,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -3349,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -3362,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Nuevo Urecho</t>
@@ -3375,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -3388,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -3401,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -3414,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -3427,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -3440,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -3453,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -3466,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -3479,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Tingambato</t>
@@ -3492,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -3505,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -3518,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -3531,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -3544,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -3557,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -3570,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -3583,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -3596,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3627,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -3640,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -3653,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -3666,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Huitzilac</t>
@@ -3679,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -3692,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -3705,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -3718,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -3731,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -3744,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -3757,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -3770,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3801,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -3814,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -3827,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -3840,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -3853,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3884,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -3897,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3928,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Coicoyán De Las Flores</t>
@@ -3941,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>El Barrio De La Soledad</t>
@@ -3954,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Fresnillo De Trujano</t>
@@ -3967,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Magdalena Tequisistlán</t>
@@ -3980,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Nuevo Zoquiápam</t>
@@ -3993,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -4006,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -4019,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>San Andrés Dinicuiti</t>
@@ -4032,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>San Andrés Teotilálpam</t>
@@ -4045,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -4058,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>San Cristóbal Amatlán</t>
@@ -4071,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>San Gabriel Mixtepec</t>
@@ -4084,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>San Juan Bautista Lo De Soto</t>
@@ -4097,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -4110,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>San Juan Ñumí</t>
@@ -4123,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>San Pablo Tijaltepec</t>
@@ -4136,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>San Pedro Atoyac</t>
@@ -4149,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec -Dto. 22 -</t>
@@ -4162,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>San Sebastián Tecomaxtlahuaca</t>
@@ -4175,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Santa Inés Del Monte</t>
@@ -4188,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -4201,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Santa María Temaxcaltepec</t>
@@ -4214,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Santiago Huajolotitlán</t>
@@ -4227,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -4240,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -4253,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -4266,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Santiago Suchilquitongo</t>
@@ -4279,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -4292,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -4305,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Santo Domingo Zanatepec</t>
@@ -4318,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -4331,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Tataltepec De Valdés</t>
@@ -4344,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Teotitlán De Flores Magón</t>
@@ -4357,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Valerio Trujano</t>
@@ -4370,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -4383,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -4396,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -4409,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4440,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -4453,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Acatzingo</t>
@@ -4466,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -4479,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Atempan</t>
@@ -4492,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -4505,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -4518,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -4531,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Chapulco</t>
@@ -4544,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -4557,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -4570,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -4583,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -4596,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Chilchotla</t>
@@ -4609,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Cohetzala</t>
@@ -4622,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -4635,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Cuautempan</t>
@@ -4648,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Cuetzalan Del Progreso</t>
@@ -4661,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Domingo Arenas</t>
@@ -4674,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Eloxochitlán</t>
@@ -4687,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -4700,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -4713,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -4726,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Huehuetlán El Chico</t>
@@ -4739,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Huehuetlán El Grande</t>
@@ -4752,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -4765,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -4778,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -4791,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -4804,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -4817,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -4830,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -4843,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -4856,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -4869,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -4882,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -4895,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -4908,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>San Felipe Teotlalcingo</t>
@@ -4921,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -4934,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>San Miguel Xoxtla</t>
@@ -4947,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>San Nicolás De Los Ranchos</t>
@@ -4960,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -4973,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -4986,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -4999,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -5012,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -5025,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Tepetzintla</t>
@@ -5038,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -5051,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -5064,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -5077,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Tlaltenango</t>
@@ -5090,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -5103,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -5116,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Tuzamapan De Galeana</t>
@@ -5129,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -5142,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -5155,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -5168,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -5181,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -5194,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Zoquitlán</t>
@@ -5207,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5238,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -5251,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -5264,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -5277,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Tolimán</t>
@@ -5290,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5321,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5352,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -5365,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -5378,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -5391,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Moctezuma</t>
@@ -5404,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -5417,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -5430,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -5443,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -5456,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>San Nicolás Tolentino</t>
@@ -5469,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -5482,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -5495,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5526,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -5539,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -5552,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5583,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5614,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -5627,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Paraíso</t>
@@ -5640,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Tacotalpa</t>
@@ -5653,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5684,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Jaumave</t>
@@ -5697,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -5710,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -5723,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -5736,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -5749,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5780,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -5793,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -5806,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -5819,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Nanacamilpa De Mariano Arista</t>
@@ -5832,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Tetla De La Solidaridad</t>
@@ -5845,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -5858,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5889,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Acula</t>
@@ -5902,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Alto Lucero De Gutiérrez Barrios</t>
@@ -5915,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Alvarado</t>
@@ -5928,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -5941,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -5954,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -5967,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Cazones De Herrera</t>
@@ -5980,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Chacaltianguis</t>
@@ -5993,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -6006,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -6019,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -6032,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -6045,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -6058,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -6071,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -6084,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -6097,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -6110,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Fortín</t>
@@ -6123,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -6136,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -6149,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -6162,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Ixmatlahuacan</t>
@@ -6175,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Jalcomulco</t>
@@ -6188,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -6201,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -6214,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -6227,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -6240,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -6253,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Las Vigas De Ramírez</t>
@@ -6266,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -6279,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -6292,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -6305,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -6318,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Nanchital De Lázaro Cárdenas Del Río</t>
@@ -6331,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -6344,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -6357,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Otatitlán</t>
@@ -6370,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -6383,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -6396,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Perote</t>
@@ -6409,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -6422,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -6435,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -6448,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -6461,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Teocelo</t>
@@ -6474,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Texcatepec</t>
@@ -6487,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Texhuacán</t>
@@ -6500,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -6513,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -6526,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Tlachichilco</t>
@@ -6539,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -6552,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -6565,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Tlilapan</t>
@@ -6578,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -6591,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -6604,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Ursulo Galván</t>
@@ -6617,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -6630,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -6643,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -6656,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6687,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6718,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Huanusco</t>
@@ -6731,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -6744,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -6757,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -6770,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -6783,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -6796,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Tepechitlán</t>
@@ -6809,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -6822,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Total</t>
